--- a/modules/download/storageAddressExport.xlsx
+++ b/modules/download/storageAddressExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>0=delete
 1=update</t>
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>區域</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>排</t>
+  </si>
+  <si>
+    <t>位</t>
   </si>
   <si>
     <t>方位
@@ -105,15 +114,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,8 +158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,15 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,13 +184,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +204,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,9 +236,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,31 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +470,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +508,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,45 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,161 +573,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -1104,24 +1110,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="8.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="14" width="9" style="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="13" max="17" width="9" style="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:16">
+    <row r="1" ht="31.5" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1137,78 +1143,87 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1">
         <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>999999</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>999999</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
     </row>
